--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$9</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -315,10 +315,23 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>sourceID</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-sourceId-extension}
+</t>
+  </si>
+  <si>
+    <t>BC SourceID and UserID</t>
+  </si>
+  <si>
+    <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
+  </si>
+  <si>
     <t>businessDates</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
@@ -705,7 +718,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1281,7 +1294,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>98</v>
@@ -1368,23 +1381,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -1401,16 +1416,14 @@
       <c r="L7" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M7" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
         <v>75</v>
@@ -1452,27 +1465,27 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1480,10 +1493,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1495,22 +1508,24 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L8" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>75</v>
@@ -1552,10 +1567,10 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -1564,14 +1579,114 @@
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>111</v>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ8">
+  <autoFilter ref="A1:AJ9">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1581,7 +1696,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI7">
+  <conditionalFormatting sqref="A2:AI8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -315,10 +315,23 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>businessDates</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Business Dates</t>
+  </si>
+  <si>
+    <t>The effective dates for the parent element.</t>
+  </si>
+  <si>
     <t>sourceID</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-sourceId-extension}
@@ -329,19 +342,6 @@
   </si>
   <si>
     <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
-  </si>
-  <si>
-    <t>businessDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Business Dates</t>
-  </si>
-  <si>
-    <t>The effective dates for the parent element.</t>
   </si>
   <si>
     <t>deathFlagHistory</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
